--- a/Via_1/src/test/resources/testData/testData.xlsx
+++ b/Via_1/src/test/resources/testData/testData.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="56">
   <si>
     <t>webdriver.chrome.driver</t>
   </si>
@@ -170,6 +170,27 @@
   </si>
   <si>
     <t>Mumbai</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>mr</t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t>apoorva@gmail.com</t>
+  </si>
+  <si>
+    <t>Pragathi</t>
+  </si>
+  <si>
+    <t>pragathi@gmail.com</t>
+  </si>
+  <si>
+    <t>Apoorva</t>
   </si>
 </sst>
 </file>
@@ -696,10 +717,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -852,7 +873,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -872,7 +893,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -892,7 +913,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -912,7 +933,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -932,7 +953,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -946,22 +967,25 @@
         <v>13</v>
       </c>
       <c r="E21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="I21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -975,51 +999,57 @@
         <v>14</v>
       </c>
       <c r="E22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
+      </c>
+      <c r="F23" t="s">
+        <v>55</v>
       </c>
       <c r="G23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="I23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1033,22 +1063,25 @@
         <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="I24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1062,18 +1095,21 @@
         <v>44</v>
       </c>
       <c r="E25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1084,11 +1120,11 @@
     <hyperlink ref="E20" r:id="rId3"/>
     <hyperlink ref="E19" r:id="rId4"/>
     <hyperlink ref="E16" r:id="rId5"/>
-    <hyperlink ref="H25" r:id="rId6"/>
-    <hyperlink ref="H22" r:id="rId7"/>
-    <hyperlink ref="H23" r:id="rId8"/>
-    <hyperlink ref="H24" r:id="rId9"/>
-    <hyperlink ref="H21" r:id="rId10"/>
+    <hyperlink ref="I25" r:id="rId6"/>
+    <hyperlink ref="I22" r:id="rId7"/>
+    <hyperlink ref="I23" r:id="rId8"/>
+    <hyperlink ref="I24" r:id="rId9"/>
+    <hyperlink ref="I21" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Via_1/src/test/resources/testData/testData.xlsx
+++ b/Via_1/src/test/resources/testData/testData.xlsx
@@ -720,7 +720,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>

--- a/Via_1/src/test/resources/testData/testData.xlsx
+++ b/Via_1/src/test/resources/testData/testData.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="55">
   <si>
     <t>webdriver.chrome.driver</t>
   </si>
@@ -91,9 +91,6 @@
     <t>Bus_Oneway_005Test</t>
   </si>
   <si>
-    <t>Bus_Oneway_Place</t>
-  </si>
-  <si>
     <t>Naveen</t>
   </si>
   <si>
@@ -121,24 +118,15 @@
     <t>UPI</t>
   </si>
   <si>
-    <t>Lokesh</t>
-  </si>
-  <si>
     <t>22</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>lokesh@gmail.com</t>
-  </si>
-  <si>
     <t>Wallet</t>
   </si>
   <si>
-    <t>Hemanth</t>
-  </si>
-  <si>
     <t>DebitCard</t>
   </si>
   <si>
@@ -154,9 +142,6 @@
     <t>26</t>
   </si>
   <si>
-    <t>hemanth@gmail.com</t>
-  </si>
-  <si>
     <t>15/02/2023</t>
   </si>
   <si>
@@ -191,6 +176,18 @@
   </si>
   <si>
     <t>Apoorva</t>
+  </si>
+  <si>
+    <t>07/02/2023</t>
+  </si>
+  <si>
+    <t>Bus_Oneway_Place_Test</t>
+  </si>
+  <si>
+    <t>Bus_Result_007_Test</t>
+  </si>
+  <si>
+    <t>29/01/2023</t>
   </si>
 </sst>
 </file>
@@ -717,10 +714,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -736,44 +733,44 @@
     <col min="9" max="9" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -781,15 +778,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -797,31 +794,34 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -829,7 +829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -837,7 +837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
@@ -845,7 +845,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -853,278 +853,276 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>42</v>
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="G21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="J21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" t="s">
-        <v>9</v>
-      </c>
       <c r="G22" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="J22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
         <v>45</v>
       </c>
-      <c r="C23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" t="s">
-        <v>51</v>
-      </c>
       <c r="F23" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="J23" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="2" t="s">
+      <c r="J24" t="s">
         <v>33</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J24" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
         <v>12</v>
       </c>
-      <c r="C25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" t="s">
         <v>44</v>
       </c>
-      <c r="E25" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J25" t="s">
-        <v>39</v>
+      <c r="F26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E17" r:id="rId1"/>
-    <hyperlink ref="E18" r:id="rId2"/>
-    <hyperlink ref="E20" r:id="rId3"/>
-    <hyperlink ref="E19" r:id="rId4"/>
-    <hyperlink ref="E16" r:id="rId5"/>
-    <hyperlink ref="I25" r:id="rId6"/>
-    <hyperlink ref="I22" r:id="rId7"/>
-    <hyperlink ref="I23" r:id="rId8"/>
-    <hyperlink ref="I24" r:id="rId9"/>
-    <hyperlink ref="I21" r:id="rId10"/>
+    <hyperlink ref="I26" r:id="rId1"/>
+    <hyperlink ref="I23" r:id="rId2"/>
+    <hyperlink ref="I24" r:id="rId3"/>
+    <hyperlink ref="I25" r:id="rId4"/>
+    <hyperlink ref="I22" r:id="rId5"/>
+    <hyperlink ref="I21" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Via_1/src/test/resources/testData/testData.xlsx
+++ b/Via_1/src/test/resources/testData/testData.xlsx
@@ -58,9 +58,6 @@
     <t>Shashi&amp;&amp;1</t>
   </si>
   <si>
-    <t>Bus_Oneway_001Test</t>
-  </si>
-  <si>
     <t>Goa</t>
   </si>
   <si>
@@ -76,21 +73,9 @@
     <t>20/02/2023</t>
   </si>
   <si>
-    <t>Bus_Oneway_002Test</t>
-  </si>
-  <si>
-    <t>Bus_Oneway_003Test</t>
-  </si>
-  <si>
     <t>456Mu%^</t>
   </si>
   <si>
-    <t>Bus_Oneway_004Test</t>
-  </si>
-  <si>
-    <t>Bus_Oneway_005Test</t>
-  </si>
-  <si>
     <t>Naveen</t>
   </si>
   <si>
@@ -188,6 +173,21 @@
   </si>
   <si>
     <t>29/01/2023</t>
+  </si>
+  <si>
+    <t>Bus_Oneway_001_Test</t>
+  </si>
+  <si>
+    <t>Bus_Oneway_002_Test</t>
+  </si>
+  <si>
+    <t>Bus_Oneway_003_Test</t>
+  </si>
+  <si>
+    <t>Bus_Oneway_004_Test</t>
+  </si>
+  <si>
+    <t>Bus_Oneway_005_Test</t>
   </si>
 </sst>
 </file>
@@ -716,9 +716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
@@ -735,384 +733,384 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" t="s">
         <v>23</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" t="s">
         <v>23</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J23" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J24" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" t="s">
         <v>43</v>
       </c>
-      <c r="C25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
-      </c>
       <c r="G25" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J25" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" t="s">
         <v>39</v>
       </c>
-      <c r="E26" t="s">
-        <v>44</v>
-      </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J26" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Via_1/src/test/resources/testData/testData.xlsx
+++ b/Via_1/src/test/resources/testData/testData.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22368" windowHeight="9336" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22368" windowHeight="9336" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Apoorva" sheetId="1" r:id="rId1"/>
     <sheet name="Anup" sheetId="2" r:id="rId2"/>
     <sheet name="Manjunath" sheetId="3" r:id="rId3"/>
     <sheet name="Shashank" sheetId="10" r:id="rId4"/>
-    <sheet name="Naveen" sheetId="4" r:id="rId5"/>
-    <sheet name="Meghana" sheetId="5" r:id="rId6"/>
+    <sheet name="Naveen1" sheetId="4" r:id="rId5"/>
+    <sheet name="Naveen" sheetId="5" r:id="rId6"/>
     <sheet name="Pragathi" sheetId="6" r:id="rId7"/>
     <sheet name="Keerthika" sheetId="7" r:id="rId8"/>
     <sheet name="Vinayak" sheetId="8" r:id="rId9"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="57">
   <si>
     <t>webdriver.chrome.driver</t>
   </si>
@@ -188,6 +188,12 @@
   </si>
   <si>
     <t>Bus_Oneway_005_Test</t>
+  </si>
+  <si>
+    <t>TestCases</t>
+  </si>
+  <si>
+    <t>Bus_Oneway_009_Test</t>
   </si>
 </sst>
 </file>
@@ -716,7 +722,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:J26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
@@ -1128,18 +1136,171 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I8" r:id="rId1"/>
+    <hyperlink ref="I10" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/Via_1/src/test/resources/testData/testData.xlsx
+++ b/Via_1/src/test/resources/testData/testData.xlsx
@@ -723,7 +723,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:J26"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>

--- a/Via_1/src/test/resources/testData/testData.xlsx
+++ b/Via_1/src/test/resources/testData/testData.xlsx
@@ -1139,7 +1139,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:D9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
